--- a/biology/Botanique/Julia_Wilmotte_Henshaw/Julia_Wilmotte_Henshaw.xlsx
+++ b/biology/Botanique/Julia_Wilmotte_Henshaw/Julia_Wilmotte_Henshaw.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Julia Wilmotte Henshaw (née Julia Wilmotte Henderson le 8 août 1869 – morte le 18 ou 20 novembre 1937[note 1]) est une botaniste, géographe, écrivaine et militante canadienne. Elle s'est notamment distinguée lors de son travail pour la Croix-Rouge lors de la Première Guerre mondiale[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Julia Wilmotte Henshaw (née Julia Wilmotte Henderson le 8 août 1869 – morte le 18 ou 20 novembre 1937[note 1]) est une botaniste, géographe, écrivaine et militante canadienne. Elle s'est notamment distinguée lors de son travail pour la Croix-Rouge lors de la Première Guerre mondiale.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Jeunesse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Julia Wilmotte Henderson naît en 1869 à Durham, en Angleterre. Elle fait partie d'une famille de huit enfants. Elle étudie en France et en Allemagne avant de déménager au Canada.
-Le 15 juin 1887, elle se marie avec Charles Grant Henshaw (6 juillet 1860-c.1927)[2] à Montréal. Le couple aura un enfant, Doris (20 septembre 1889-c.1974), puis s'installe en Colombie-Britannique en 1890[1],[3].
-On attribue parfois par erreur à Julia Henshaw la découverte de Cypripedium acaule[1],[3], alors que cette dernière a été recensée au moins depuis 1789 et connue dans les Rocheuses canadiennes depuis au moins 1897. Cette erreur résulterait d'une incompréhension de l'une de ses déclarations, où elle dit : « La Pink Lady's Slipper [C. acaule] est si rare dans les Rocheuses que je considère que l'avoir découverte en 1903 est le couronnement de ma carrière de botaniste dans cette région[trad 1],[4]. »
+Le 15 juin 1887, elle se marie avec Charles Grant Henshaw (6 juillet 1860-c.1927) à Montréal. Le couple aura un enfant, Doris (20 septembre 1889-c.1974), puis s'installe en Colombie-Britannique en 1890,.
+On attribue parfois par erreur à Julia Henshaw la découverte de Cypripedium acaule alors que cette dernière a été recensée au moins depuis 1789 et connue dans les Rocheuses canadiennes depuis au moins 1897. Cette erreur résulterait d'une incompréhension de l'une de ses déclarations, où elle dit : « La Pink Lady's Slipper [C. acaule] est si rare dans les Rocheuses que je considère que l'avoir découverte en 1903 est le couronnement de ma carrière de botaniste dans cette région[trad 1],. »
 </t>
         </is>
       </c>
@@ -544,11 +558,13 @@
           <t>Première Guerre mondiale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henshaw voyage en France peu avant la Première Guerre mondiale. Lors de son retour, elle prône la conscription et des levée de fonds pour les services d'ambulance[1]. Elle s'adresse principalement à des femmes, dont certaines ont obtenu le droit de vote par le Wartime Elections Act (en) de 1917[1].
-En 1915, elle intègre les rangs du Royal Army Medical Corps comme conductrice d'ambulance géré par la British Red Cross Society (en)[1]. Elle est promue au rang de capitaine, puis devient vice-présidente de l'Imperial Order Daughters of the Empire (en).
-Elle est récompensée de la Croix de Guerre pour avoir « récupéré et évacué avec dévouement et courage des gens lors de bombardements[trad 2],[1],[2]. »
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henshaw voyage en France peu avant la Première Guerre mondiale. Lors de son retour, elle prône la conscription et des levée de fonds pour les services d'ambulance. Elle s'adresse principalement à des femmes, dont certaines ont obtenu le droit de vote par le Wartime Elections Act (en) de 1917.
+En 1915, elle intègre les rangs du Royal Army Medical Corps comme conductrice d'ambulance géré par la British Red Cross Society (en). Elle est promue au rang de capitaine, puis devient vice-présidente de l'Imperial Order Daughters of the Empire (en).
+Elle est récompensée de la Croix de Guerre pour avoir « récupéré et évacué avec dévouement et courage des gens lors de bombardements[trad 2]. »
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Autres travaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henshaw a fait la cartographie des terres de l'île de Vancouver en 1910–1911. La Royal Geographical Society l'a accueillie dans ses rangs en 1911. Elle a également écrit pour deux journaux de Vancouver[2]. En 1914, son mari et elle seraient les premières personnes à avoir traversé les Rocheuses canadiennes en voiture[1][source insuffisante].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henshaw a fait la cartographie des terres de l'île de Vancouver en 1910–1911. La Royal Geographical Society l'a accueillie dans ses rangs en 1911. Elle a également écrit pour deux journaux de Vancouver. En 1914, son mari et elle seraient les premières personnes à avoir traversé les Rocheuses canadiennes en voiture[source insuffisante].
 </t>
         </is>
       </c>
